--- a/Experimental_raw_data/Experimental_raw_data_bacterial_homologs_of_innate_eukaryotic_antiviral_defenses.xlsx
+++ b/Experimental_raw_data/Experimental_raw_data_bacterial_homologs_of_innate_eukaryotic_antiviral_defenses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalAdmin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalAdmin\Documents\GitHub\Bacterial_homologs_of_innate_eukaryotic_antiviral_defenses\Experimental_raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D53500DD-6B91-4318-852F-880C5808E1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E756840-BDB3-4D5F-8108-F8245D4662C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDD87FA0-310B-4FD7-9044-5270979B693A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{FDD87FA0-310B-4FD7-9044-5270979B693A}"/>
   </bookViews>
   <sheets>
     <sheet name="EOP new systems" sheetId="1" r:id="rId1"/>
@@ -86,13 +86,7 @@
     <t>Empty plasmid</t>
   </si>
   <si>
-    <t>Pan</t>
-  </si>
-  <si>
     <t>6A-MBL</t>
-  </si>
-  <si>
-    <t>Nyx</t>
   </si>
   <si>
     <t>Hypnos</t>
@@ -191,13 +185,7 @@
     <t>EP Pa34 MOI 0.01</t>
   </si>
   <si>
-    <t>Pan Pa34 MOI 10</t>
-  </si>
-  <si>
     <t>EP</t>
-  </si>
-  <si>
-    <t>S13 Pa34 MOI 0.01</t>
   </si>
   <si>
     <t>EP Pa18 MOI 10</t>
@@ -210,12 +198,6 @@
   </si>
   <si>
     <t>Prometheus Pa18 MOI 0.01</t>
-  </si>
-  <si>
-    <t>Nyx Pa34 MOI 10</t>
-  </si>
-  <si>
-    <t>Nyx Pa34 MOI 0.01</t>
   </si>
   <si>
     <t>Hypnos Pa18 MOI 10</t>
@@ -270,6 +252,24 @@
   </si>
   <si>
     <t>Thoeris III Pa34</t>
+  </si>
+  <si>
+    <t>Erebus</t>
+  </si>
+  <si>
+    <t>Hermes</t>
+  </si>
+  <si>
+    <t>Hermes Pa34 MOI 10</t>
+  </si>
+  <si>
+    <t>Hermes Pa34 MOI 0.01</t>
+  </si>
+  <si>
+    <t>Erebus Pa34 MOI 10</t>
+  </si>
+  <si>
+    <t>Erebus Pa34 MOI 0.01</t>
   </si>
 </sst>
 </file>
@@ -1448,46 +1448,16 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1497,6 +1467,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1827,8 +1827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F165DE3-7C06-4E3E-A19E-496BA3D032E3}">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,85 +1843,85 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133" t="s">
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133" t="s">
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133" t="s">
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133" t="s">
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133"/>
-      <c r="U1" s="133"/>
-      <c r="V1" s="133"/>
-      <c r="W1" s="133" t="s">
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
+      <c r="U1" s="132"/>
+      <c r="V1" s="132"/>
+      <c r="W1" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="133"/>
+      <c r="X1" s="132"/>
+      <c r="Y1" s="132"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31"/>
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132" t="s">
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132" t="s">
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132" t="s">
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="132" t="s">
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="132"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132" t="s">
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="132"/>
-      <c r="S2" s="132"/>
-      <c r="T2" s="132" t="s">
+      <c r="R2" s="133"/>
+      <c r="S2" s="133"/>
+      <c r="T2" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="132"/>
-      <c r="V2" s="132"/>
-      <c r="W2" s="132" t="s">
+      <c r="U2" s="133"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="132"/>
-      <c r="Y2" s="132"/>
+      <c r="X2" s="133"/>
+      <c r="Y2" s="133"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -2008,7 +2008,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="B4" s="9">
         <f>900000</f>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="9">
         <f>1200000</f>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="B6" s="9">
         <f>800000</f>
@@ -2257,7 +2257,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="9">
         <f>1300000</f>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="9">
         <f>2000000</f>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="9">
         <f>2400000</f>
@@ -2684,85 +2684,85 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="133" t="s">
+      <c r="B14" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="133"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133" t="s">
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="133" t="s">
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="132"/>
+      <c r="K14" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="L14" s="133"/>
-      <c r="M14" s="133"/>
-      <c r="N14" s="133" t="s">
+      <c r="L14" s="132"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="133"/>
-      <c r="P14" s="133"/>
-      <c r="Q14" s="133" t="s">
+      <c r="O14" s="132"/>
+      <c r="P14" s="132"/>
+      <c r="Q14" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="133"/>
-      <c r="S14" s="133"/>
-      <c r="T14" s="133"/>
-      <c r="U14" s="133"/>
-      <c r="V14" s="133"/>
-      <c r="W14" s="133" t="s">
+      <c r="R14" s="132"/>
+      <c r="S14" s="132"/>
+      <c r="T14" s="132"/>
+      <c r="U14" s="132"/>
+      <c r="V14" s="132"/>
+      <c r="W14" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="X14" s="133"/>
-      <c r="Y14" s="133"/>
+      <c r="X14" s="132"/>
+      <c r="Y14" s="132"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
-      <c r="B15" s="132" t="s">
+      <c r="B15" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="132"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="132" t="s">
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="132"/>
-      <c r="G15" s="132"/>
-      <c r="H15" s="132" t="s">
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="132"/>
-      <c r="J15" s="132"/>
-      <c r="K15" s="132" t="s">
+      <c r="I15" s="133"/>
+      <c r="J15" s="133"/>
+      <c r="K15" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="L15" s="132"/>
-      <c r="M15" s="132"/>
-      <c r="N15" s="132" t="s">
+      <c r="L15" s="133"/>
+      <c r="M15" s="133"/>
+      <c r="N15" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="132"/>
-      <c r="P15" s="132"/>
-      <c r="Q15" s="132" t="s">
+      <c r="O15" s="133"/>
+      <c r="P15" s="133"/>
+      <c r="Q15" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="R15" s="132"/>
-      <c r="S15" s="132"/>
-      <c r="T15" s="132" t="s">
+      <c r="R15" s="133"/>
+      <c r="S15" s="133"/>
+      <c r="T15" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="U15" s="132"/>
-      <c r="V15" s="132"/>
-      <c r="W15" s="132" t="s">
+      <c r="U15" s="133"/>
+      <c r="V15" s="133"/>
+      <c r="W15" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="X15" s="132"/>
-      <c r="Y15" s="132"/>
+      <c r="X15" s="133"/>
+      <c r="Y15" s="133"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -2867,7 +2867,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="B17" s="25">
         <f t="shared" ref="B17:P17" si="1">LOG10(B4)</f>
@@ -2962,7 +2962,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="25">
         <f t="shared" ref="B18:P18" si="3">LOG10(B5)</f>
@@ -3058,7 +3058,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="B19" s="25">
         <f t="shared" ref="B19:P19" si="4">LOG10(B6)</f>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="25">
         <f t="shared" ref="B20:P20" si="5">LOG10(B7)</f>
@@ -3334,7 +3334,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B22" s="25">
         <f t="shared" ref="B22:D24" si="9">LOG10(B9)</f>
@@ -3536,7 +3536,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B24" s="25">
         <f t="shared" si="9"/>
@@ -3655,12 +3655,14 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="Q15:S15"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
@@ -3675,14 +3677,12 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3693,7 +3693,7 @@
   <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3706,44 +3706,44 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="66"/>
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133" t="s">
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133" t="s">
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
       <c r="N1" s="37"/>
       <c r="O1" s="66"/>
-      <c r="P1" s="133" t="s">
+      <c r="P1" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133" t="s">
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="133"/>
-      <c r="V1" s="133"/>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133" t="s">
+      <c r="U1" s="132"/>
+      <c r="V1" s="132"/>
+      <c r="W1" s="132"/>
+      <c r="X1" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="133"/>
-      <c r="Z1" s="133"/>
-      <c r="AA1" s="133"/>
+      <c r="Y1" s="132"/>
+      <c r="Z1" s="132"/>
+      <c r="AA1" s="132"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="64"/>
@@ -3873,12 +3873,12 @@
         <v>8.3979400086720375</v>
       </c>
       <c r="AA3" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="92" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="B4" s="79"/>
       <c r="C4" s="79"/>
@@ -3902,7 +3902,7 @@
       <c r="M4" s="93"/>
       <c r="N4" s="38"/>
       <c r="O4" s="92" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="P4" s="41"/>
       <c r="Q4" s="41"/>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="94" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="80"/>
       <c r="C5" s="80"/>
@@ -3949,7 +3949,7 @@
       <c r="M5" s="95"/>
       <c r="N5" s="38"/>
       <c r="O5" s="94" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P5" s="44"/>
       <c r="Q5" s="44"/>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="96" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" s="81"/>
       <c r="C6" s="81"/>
@@ -3999,7 +3999,7 @@
       <c r="M6" s="97"/>
       <c r="N6" s="38"/>
       <c r="O6" s="96" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P6" s="61"/>
       <c r="Q6" s="61"/>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="83"/>
       <c r="C7" s="83"/>
@@ -4052,7 +4052,7 @@
       <c r="M7" s="98"/>
       <c r="N7" s="38"/>
       <c r="O7" s="57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P7" s="49"/>
       <c r="Q7" s="49"/>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="58" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" s="84"/>
       <c r="C8" s="84"/>
@@ -4101,7 +4101,7 @@
       <c r="M8" s="99"/>
       <c r="N8" s="38"/>
       <c r="O8" s="58" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P8" s="68"/>
       <c r="Q8" s="68"/>
@@ -4130,7 +4130,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="94" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" s="80"/>
       <c r="C9" s="80"/>
@@ -4152,7 +4152,7 @@
       <c r="M9" s="95"/>
       <c r="N9" s="38"/>
       <c r="O9" s="94" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P9" s="44"/>
       <c r="Q9" s="44"/>
@@ -4178,7 +4178,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="94" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" s="80"/>
       <c r="C10" s="80"/>
@@ -4200,7 +4200,7 @@
       <c r="M10" s="95"/>
       <c r="N10" s="38"/>
       <c r="O10" s="94" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P10" s="44"/>
       <c r="Q10" s="44"/>
@@ -4226,7 +4226,7 @@
     </row>
     <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="56" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="80"/>
       <c r="C11" s="80"/>
@@ -4250,7 +4250,7 @@
       <c r="M11" s="100"/>
       <c r="N11" s="38"/>
       <c r="O11" s="56" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P11" s="44"/>
       <c r="Q11" s="44"/>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="55" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="B12" s="87"/>
       <c r="C12" s="87"/>
@@ -4301,7 +4301,7 @@
       <c r="M12" s="101"/>
       <c r="N12" s="38"/>
       <c r="O12" s="55" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="P12" s="51"/>
       <c r="Q12" s="51"/>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="84"/>
       <c r="C13" s="84"/>
@@ -4350,7 +4350,7 @@
       <c r="M13" s="99"/>
       <c r="N13" s="38"/>
       <c r="O13" s="58" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P13" s="68"/>
       <c r="Q13" s="68"/>
@@ -4379,7 +4379,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="94" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" s="80"/>
       <c r="C14" s="80"/>
@@ -4401,7 +4401,7 @@
       <c r="M14" s="95"/>
       <c r="N14" s="21"/>
       <c r="O14" s="94" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
@@ -4427,7 +4427,7 @@
     </row>
     <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="102" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" s="86"/>
       <c r="C15" s="86"/>
@@ -4447,7 +4447,7 @@
       <c r="M15" s="100"/>
       <c r="N15" s="21"/>
       <c r="O15" s="102" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P15" s="46"/>
       <c r="Q15" s="46"/>
@@ -4470,7 +4470,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="55" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" s="75">
         <v>12000</v>
@@ -4494,7 +4494,7 @@
       <c r="M16" s="93"/>
       <c r="N16" s="53"/>
       <c r="O16" s="55" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P16" s="42">
         <f t="shared" ref="P16:S17" si="8">LOG10(B16)</f>
@@ -4523,7 +4523,7 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" s="77">
         <v>6000000</v>
@@ -4547,7 +4547,7 @@
       <c r="M17" s="95"/>
       <c r="N17" s="53"/>
       <c r="O17" s="56" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P17" s="54">
         <f t="shared" si="8"/>
@@ -4576,7 +4576,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="94" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B18" s="77">
         <v>22000000</v>
@@ -4598,7 +4598,7 @@
       <c r="M18" s="95"/>
       <c r="N18" s="53"/>
       <c r="O18" s="94" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P18" s="54">
         <f t="shared" ref="P18:R20" si="9">LOG10(B18)</f>
@@ -4624,7 +4624,7 @@
     </row>
     <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="102" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B19" s="89">
         <v>160000000</v>
@@ -4646,7 +4646,7 @@
       <c r="M19" s="100"/>
       <c r="N19" s="53"/>
       <c r="O19" s="102" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P19" s="60">
         <f t="shared" si="9"/>
@@ -4672,7 +4672,7 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="57" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" s="78">
         <v>1800000</v>
@@ -4694,7 +4694,7 @@
       <c r="M20" s="98"/>
       <c r="N20" s="53"/>
       <c r="O20" s="57" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P20" s="48">
         <f t="shared" si="9"/>
@@ -4720,7 +4720,7 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="56" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21" s="77">
         <v>160000000</v>
@@ -4742,7 +4742,7 @@
       <c r="M21" s="98"/>
       <c r="N21" s="53"/>
       <c r="O21" s="56" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P21" s="54">
         <f t="shared" ref="P21" si="10">LOG10(B21)</f>
@@ -4768,7 +4768,7 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="56" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B22" s="77">
         <v>80000000</v>
@@ -4790,7 +4790,7 @@
       <c r="M22" s="95"/>
       <c r="N22" s="21"/>
       <c r="O22" s="56" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P22" s="54">
         <f>LOG10(B22)</f>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="56" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B23" s="77">
         <v>160000000</v>
@@ -4838,7 +4838,7 @@
       <c r="M23" s="95"/>
       <c r="N23" s="21"/>
       <c r="O23" s="56" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P23" s="54">
         <f>LOG10(B23)</f>
@@ -4864,7 +4864,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="56" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B24" s="77">
         <v>120000000</v>
@@ -4886,7 +4886,7 @@
       <c r="M24" s="95"/>
       <c r="N24" s="37"/>
       <c r="O24" s="56" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P24" s="54">
         <f>LOG10(B24)</f>
@@ -4912,7 +4912,7 @@
     </row>
     <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="58" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B25" s="85">
         <v>80000000</v>
@@ -4934,7 +4934,7 @@
       <c r="M25" s="99"/>
       <c r="N25" s="53"/>
       <c r="O25" s="58" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P25" s="69">
         <f>LOG10(B25)</f>
@@ -4960,7 +4960,7 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="59" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B26" s="79"/>
       <c r="C26" s="79"/>
@@ -4984,7 +4984,7 @@
       <c r="M26" s="93"/>
       <c r="N26" s="27"/>
       <c r="O26" s="59" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P26" s="41"/>
       <c r="Q26" s="41"/>
@@ -5009,7 +5009,7 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="56" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B27" s="80"/>
       <c r="C27" s="80"/>
@@ -5031,7 +5031,7 @@
       <c r="M27" s="95"/>
       <c r="N27" s="27"/>
       <c r="O27" s="56" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P27" s="44"/>
       <c r="Q27" s="44"/>
@@ -5057,7 +5057,7 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="56" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B28" s="80"/>
       <c r="C28" s="80"/>
@@ -5081,7 +5081,7 @@
       <c r="M28" s="95"/>
       <c r="N28" s="27"/>
       <c r="O28" s="56" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P28" s="44"/>
       <c r="Q28" s="44"/>
@@ -5106,7 +5106,7 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="56" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B29" s="80"/>
       <c r="C29" s="80"/>
@@ -5130,7 +5130,7 @@
       <c r="M29" s="95"/>
       <c r="N29" s="27"/>
       <c r="O29" s="56" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P29" s="44"/>
       <c r="Q29" s="44"/>
@@ -5155,7 +5155,7 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="56" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B30" s="80"/>
       <c r="C30" s="80"/>
@@ -5179,7 +5179,7 @@
       <c r="M30" s="95"/>
       <c r="N30" s="27"/>
       <c r="O30" s="56" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P30" s="44"/>
       <c r="Q30" s="44"/>
@@ -5204,7 +5204,7 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="56" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B31" s="80"/>
       <c r="C31" s="80"/>
@@ -5226,7 +5226,7 @@
       <c r="M31" s="95"/>
       <c r="N31" s="21"/>
       <c r="O31" s="56" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P31" s="44"/>
       <c r="Q31" s="44"/>
@@ -5252,7 +5252,7 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B32" s="80"/>
       <c r="C32" s="80"/>
@@ -5274,7 +5274,7 @@
       <c r="M32" s="95"/>
       <c r="N32" s="21"/>
       <c r="O32" s="56" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P32" s="44"/>
       <c r="Q32" s="44"/>
@@ -5300,7 +5300,7 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="56" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B33" s="80"/>
       <c r="C33" s="80"/>
@@ -5322,7 +5322,7 @@
       <c r="M33" s="95"/>
       <c r="N33" s="21"/>
       <c r="O33" s="56" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P33" s="44"/>
       <c r="Q33" s="44"/>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="34" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="103" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B34" s="86"/>
       <c r="C34" s="86"/>
@@ -5370,7 +5370,7 @@
       <c r="M34" s="100"/>
       <c r="N34" s="21"/>
       <c r="O34" s="103" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P34" s="46"/>
       <c r="Q34" s="46"/>
@@ -5396,18 +5396,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="P2:S2"/>
     <mergeCell ref="X1:AA1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="T1:W1"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="P2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5417,8 +5417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C434C4D-49A8-41F0-8DBB-F01801CFCA50}">
   <dimension ref="A1:DE147"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BR1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="DC2" sqref="DC2:DE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5429,68 +5429,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:109" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="146" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="146"/>
-      <c r="O1" s="146"/>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="146"/>
-      <c r="S1" s="146"/>
-      <c r="T1" s="147" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="148"/>
-      <c r="V1" s="148"/>
-      <c r="W1" s="148"/>
-      <c r="X1" s="148"/>
-      <c r="Y1" s="148"/>
-      <c r="Z1" s="148"/>
-      <c r="AA1" s="148"/>
-      <c r="AB1" s="148"/>
-      <c r="AC1" s="148"/>
-      <c r="AD1" s="148"/>
-      <c r="AE1" s="148"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="148"/>
-      <c r="AH1" s="148"/>
-      <c r="AI1" s="148"/>
-      <c r="AJ1" s="148"/>
-      <c r="AK1" s="148"/>
-      <c r="AL1" s="144" t="s">
-        <v>17</v>
-      </c>
-      <c r="AM1" s="145"/>
-      <c r="AN1" s="145"/>
-      <c r="AO1" s="145"/>
-      <c r="AP1" s="145"/>
-      <c r="AQ1" s="145"/>
-      <c r="AR1" s="145"/>
-      <c r="AS1" s="145"/>
-      <c r="AT1" s="145"/>
-      <c r="AU1" s="145"/>
-      <c r="AV1" s="145"/>
-      <c r="AW1" s="145"/>
-      <c r="AX1" s="145"/>
-      <c r="AY1" s="145"/>
-      <c r="AZ1" s="145"/>
-      <c r="BA1" s="145"/>
-      <c r="BB1" s="145"/>
-      <c r="BC1" s="145"/>
+      <c r="B1" s="136" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
+      <c r="Q1" s="136"/>
+      <c r="R1" s="136"/>
+      <c r="S1" s="136"/>
+      <c r="T1" s="137" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="138"/>
+      <c r="V1" s="138"/>
+      <c r="W1" s="138"/>
+      <c r="X1" s="138"/>
+      <c r="Y1" s="138"/>
+      <c r="Z1" s="138"/>
+      <c r="AA1" s="138"/>
+      <c r="AB1" s="138"/>
+      <c r="AC1" s="138"/>
+      <c r="AD1" s="138"/>
+      <c r="AE1" s="138"/>
+      <c r="AF1" s="138"/>
+      <c r="AG1" s="138"/>
+      <c r="AH1" s="138"/>
+      <c r="AI1" s="138"/>
+      <c r="AJ1" s="138"/>
+      <c r="AK1" s="138"/>
+      <c r="AL1" s="140" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM1" s="141"/>
+      <c r="AN1" s="141"/>
+      <c r="AO1" s="141"/>
+      <c r="AP1" s="141"/>
+      <c r="AQ1" s="141"/>
+      <c r="AR1" s="141"/>
+      <c r="AS1" s="141"/>
+      <c r="AT1" s="141"/>
+      <c r="AU1" s="141"/>
+      <c r="AV1" s="141"/>
+      <c r="AW1" s="141"/>
+      <c r="AX1" s="141"/>
+      <c r="AY1" s="141"/>
+      <c r="AZ1" s="141"/>
+      <c r="BA1" s="141"/>
+      <c r="BB1" s="141"/>
+      <c r="BC1" s="141"/>
       <c r="BD1" s="142" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BE1" s="143"/>
       <c r="BF1" s="143"/>
@@ -5509,231 +5509,231 @@
       <c r="BS1" s="143"/>
       <c r="BT1" s="143"/>
       <c r="BU1" s="143"/>
-      <c r="BV1" s="140" t="s">
-        <v>16</v>
-      </c>
-      <c r="BW1" s="141"/>
-      <c r="BX1" s="141"/>
-      <c r="BY1" s="141"/>
-      <c r="BZ1" s="141"/>
-      <c r="CA1" s="141"/>
-      <c r="CB1" s="141"/>
-      <c r="CC1" s="141"/>
-      <c r="CD1" s="141"/>
-      <c r="CE1" s="141"/>
-      <c r="CF1" s="141"/>
-      <c r="CG1" s="141"/>
-      <c r="CH1" s="141"/>
-      <c r="CI1" s="141"/>
-      <c r="CJ1" s="141"/>
-      <c r="CK1" s="141"/>
-      <c r="CL1" s="141"/>
-      <c r="CM1" s="141"/>
-      <c r="CN1" s="135" t="s">
-        <v>19</v>
-      </c>
-      <c r="CO1" s="136"/>
-      <c r="CP1" s="136"/>
-      <c r="CQ1" s="136"/>
-      <c r="CR1" s="136"/>
-      <c r="CS1" s="136"/>
-      <c r="CT1" s="136"/>
-      <c r="CU1" s="136"/>
-      <c r="CV1" s="136"/>
-      <c r="CW1" s="136"/>
-      <c r="CX1" s="136"/>
-      <c r="CY1" s="136"/>
-      <c r="CZ1" s="136"/>
-      <c r="DA1" s="136"/>
-      <c r="DB1" s="136"/>
-      <c r="DC1" s="136"/>
-      <c r="DD1" s="136"/>
-      <c r="DE1" s="136"/>
+      <c r="BV1" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="BW1" s="145"/>
+      <c r="BX1" s="145"/>
+      <c r="BY1" s="145"/>
+      <c r="BZ1" s="145"/>
+      <c r="CA1" s="145"/>
+      <c r="CB1" s="145"/>
+      <c r="CC1" s="145"/>
+      <c r="CD1" s="145"/>
+      <c r="CE1" s="145"/>
+      <c r="CF1" s="145"/>
+      <c r="CG1" s="145"/>
+      <c r="CH1" s="145"/>
+      <c r="CI1" s="145"/>
+      <c r="CJ1" s="145"/>
+      <c r="CK1" s="145"/>
+      <c r="CL1" s="145"/>
+      <c r="CM1" s="145"/>
+      <c r="CN1" s="146" t="s">
+        <v>17</v>
+      </c>
+      <c r="CO1" s="147"/>
+      <c r="CP1" s="147"/>
+      <c r="CQ1" s="147"/>
+      <c r="CR1" s="147"/>
+      <c r="CS1" s="147"/>
+      <c r="CT1" s="147"/>
+      <c r="CU1" s="147"/>
+      <c r="CV1" s="147"/>
+      <c r="CW1" s="147"/>
+      <c r="CX1" s="147"/>
+      <c r="CY1" s="147"/>
+      <c r="CZ1" s="147"/>
+      <c r="DA1" s="147"/>
+      <c r="DB1" s="147"/>
+      <c r="DC1" s="147"/>
+      <c r="DD1" s="147"/>
+      <c r="DE1" s="147"/>
     </row>
     <row r="2" spans="1:109" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="106" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="135" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="138" t="s">
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="139" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="135"/>
+      <c r="V2" s="135"/>
+      <c r="W2" s="135" t="s">
+        <v>49</v>
+      </c>
+      <c r="X2" s="135"/>
+      <c r="Y2" s="135"/>
+      <c r="Z2" s="135" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA2" s="135"/>
+      <c r="AB2" s="135"/>
+      <c r="AC2" s="135" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138" t="s">
+      <c r="AG2" s="135"/>
+      <c r="AH2" s="135"/>
+      <c r="AI2" s="135" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ2" s="135"/>
+      <c r="AK2" s="135"/>
+      <c r="AL2" s="139" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138" t="s">
+      <c r="AM2" s="135"/>
+      <c r="AN2" s="135"/>
+      <c r="AO2" s="135" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP2" s="135"/>
+      <c r="AQ2" s="135"/>
+      <c r="AR2" s="135" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS2" s="135"/>
+      <c r="AT2" s="135"/>
+      <c r="AU2" s="135" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV2" s="135"/>
+      <c r="AW2" s="135"/>
+      <c r="AX2" s="135" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY2" s="135"/>
+      <c r="AZ2" s="135"/>
+      <c r="BA2" s="135" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB2" s="135"/>
+      <c r="BC2" s="135"/>
+      <c r="BD2" s="139" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE2" s="135"/>
+      <c r="BF2" s="135"/>
+      <c r="BG2" s="135" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138" t="s">
+      <c r="BH2" s="135"/>
+      <c r="BI2" s="135"/>
+      <c r="BJ2" s="135" t="s">
+        <v>50</v>
+      </c>
+      <c r="BK2" s="135"/>
+      <c r="BL2" s="135"/>
+      <c r="BM2" s="135" t="s">
+        <v>16</v>
+      </c>
+      <c r="BN2" s="135"/>
+      <c r="BO2" s="135"/>
+      <c r="BP2" s="135" t="s">
+        <v>53</v>
+      </c>
+      <c r="BQ2" s="135"/>
+      <c r="BR2" s="135"/>
+      <c r="BS2" s="135" t="s">
+        <v>54</v>
+      </c>
+      <c r="BT2" s="135"/>
+      <c r="BU2" s="135"/>
+      <c r="BV2" s="139" t="s">
+        <v>48</v>
+      </c>
+      <c r="BW2" s="135"/>
+      <c r="BX2" s="135"/>
+      <c r="BY2" s="135" t="s">
+        <v>46</v>
+      </c>
+      <c r="BZ2" s="135"/>
+      <c r="CA2" s="135"/>
+      <c r="CB2" s="135" t="s">
+        <v>46</v>
+      </c>
+      <c r="CC2" s="135"/>
+      <c r="CD2" s="135"/>
+      <c r="CE2" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138" t="s">
-        <v>50</v>
-      </c>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138" t="s">
-        <v>52</v>
-      </c>
-      <c r="R2" s="138"/>
-      <c r="S2" s="138"/>
-      <c r="T2" s="137" t="s">
-        <v>51</v>
-      </c>
-      <c r="U2" s="138"/>
-      <c r="V2" s="138"/>
-      <c r="W2" s="138" t="s">
-        <v>53</v>
-      </c>
-      <c r="X2" s="138"/>
-      <c r="Y2" s="138"/>
-      <c r="Z2" s="138" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA2" s="138"/>
-      <c r="AB2" s="138"/>
-      <c r="AC2" s="138" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD2" s="138"/>
-      <c r="AE2" s="138"/>
-      <c r="AF2" s="138" t="s">
+      <c r="CF2" s="135"/>
+      <c r="CG2" s="135"/>
+      <c r="CH2" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="AG2" s="138"/>
-      <c r="AH2" s="138"/>
-      <c r="AI2" s="138" t="s">
+      <c r="CI2" s="135"/>
+      <c r="CJ2" s="135"/>
+      <c r="CK2" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="AJ2" s="138"/>
-      <c r="AK2" s="138"/>
-      <c r="AL2" s="137" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM2" s="138"/>
-      <c r="AN2" s="138"/>
-      <c r="AO2" s="138" t="s">
+      <c r="CL2" s="135"/>
+      <c r="CM2" s="135"/>
+      <c r="CN2" s="139" t="s">
         <v>48</v>
       </c>
-      <c r="AP2" s="138"/>
-      <c r="AQ2" s="138"/>
-      <c r="AR2" s="138" t="s">
-        <v>48</v>
-      </c>
-      <c r="AS2" s="138"/>
-      <c r="AT2" s="138"/>
-      <c r="AU2" s="138" t="s">
+      <c r="CO2" s="135"/>
+      <c r="CP2" s="135"/>
+      <c r="CQ2" s="135" t="s">
+        <v>46</v>
+      </c>
+      <c r="CR2" s="135"/>
+      <c r="CS2" s="135"/>
+      <c r="CT2" s="135" t="s">
+        <v>47</v>
+      </c>
+      <c r="CU2" s="135"/>
+      <c r="CV2" s="135"/>
+      <c r="CW2" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="138"/>
-      <c r="AW2" s="138"/>
-      <c r="AX2" s="138" t="s">
+      <c r="CX2" s="135"/>
+      <c r="CY2" s="135"/>
+      <c r="CZ2" s="135" t="s">
         <v>57</v>
       </c>
-      <c r="AY2" s="138"/>
-      <c r="AZ2" s="138"/>
-      <c r="BA2" s="138" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB2" s="138"/>
-      <c r="BC2" s="138"/>
-      <c r="BD2" s="137" t="s">
-        <v>51</v>
-      </c>
-      <c r="BE2" s="138"/>
-      <c r="BF2" s="138"/>
-      <c r="BG2" s="138" t="s">
-        <v>53</v>
-      </c>
-      <c r="BH2" s="138"/>
-      <c r="BI2" s="138"/>
-      <c r="BJ2" s="138" t="s">
-        <v>54</v>
-      </c>
-      <c r="BK2" s="138"/>
-      <c r="BL2" s="138"/>
-      <c r="BM2" s="138" t="s">
-        <v>18</v>
-      </c>
-      <c r="BN2" s="138"/>
-      <c r="BO2" s="138"/>
-      <c r="BP2" s="138" t="s">
-        <v>59</v>
-      </c>
-      <c r="BQ2" s="138"/>
-      <c r="BR2" s="138"/>
-      <c r="BS2" s="138" t="s">
-        <v>60</v>
-      </c>
-      <c r="BT2" s="138"/>
-      <c r="BU2" s="138"/>
-      <c r="BV2" s="137" t="s">
-        <v>51</v>
-      </c>
-      <c r="BW2" s="138"/>
-      <c r="BX2" s="138"/>
-      <c r="BY2" s="138" t="s">
-        <v>48</v>
-      </c>
-      <c r="BZ2" s="138"/>
-      <c r="CA2" s="138"/>
-      <c r="CB2" s="138" t="s">
-        <v>48</v>
-      </c>
-      <c r="CC2" s="138"/>
-      <c r="CD2" s="138"/>
-      <c r="CE2" s="138" t="s">
-        <v>16</v>
-      </c>
-      <c r="CF2" s="138"/>
-      <c r="CG2" s="138"/>
-      <c r="CH2" s="138" t="s">
-        <v>61</v>
-      </c>
-      <c r="CI2" s="138"/>
-      <c r="CJ2" s="138"/>
-      <c r="CK2" s="138" t="s">
-        <v>62</v>
-      </c>
-      <c r="CL2" s="138"/>
-      <c r="CM2" s="138"/>
-      <c r="CN2" s="137" t="s">
-        <v>51</v>
-      </c>
-      <c r="CO2" s="138"/>
-      <c r="CP2" s="138"/>
-      <c r="CQ2" s="138" t="s">
-        <v>48</v>
-      </c>
-      <c r="CR2" s="138"/>
-      <c r="CS2" s="138"/>
-      <c r="CT2" s="138" t="s">
-        <v>49</v>
-      </c>
-      <c r="CU2" s="138"/>
-      <c r="CV2" s="138"/>
-      <c r="CW2" s="138" t="s">
-        <v>19</v>
-      </c>
-      <c r="CX2" s="138"/>
-      <c r="CY2" s="138"/>
-      <c r="CZ2" s="138" t="s">
-        <v>63</v>
-      </c>
-      <c r="DA2" s="138"/>
-      <c r="DB2" s="138"/>
-      <c r="DC2" s="138" t="s">
-        <v>63</v>
-      </c>
-      <c r="DD2" s="138"/>
-      <c r="DE2" s="139"/>
+      <c r="DA2" s="135"/>
+      <c r="DB2" s="135"/>
+      <c r="DC2" s="135" t="s">
+        <v>57</v>
+      </c>
+      <c r="DD2" s="135"/>
+      <c r="DE2" s="148"/>
     </row>
     <row r="3" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A3" s="107">
@@ -53200,6 +53200,34 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="CN1:DE1"/>
+    <mergeCell ref="CN2:CP2"/>
+    <mergeCell ref="CQ2:CS2"/>
+    <mergeCell ref="CT2:CV2"/>
+    <mergeCell ref="CW2:CY2"/>
+    <mergeCell ref="CZ2:DB2"/>
+    <mergeCell ref="DC2:DE2"/>
+    <mergeCell ref="BV1:CM1"/>
+    <mergeCell ref="BV2:BX2"/>
+    <mergeCell ref="BY2:CA2"/>
+    <mergeCell ref="CB2:CD2"/>
+    <mergeCell ref="CE2:CG2"/>
+    <mergeCell ref="CH2:CJ2"/>
+    <mergeCell ref="CK2:CM2"/>
+    <mergeCell ref="BD1:BU1"/>
+    <mergeCell ref="BD2:BF2"/>
+    <mergeCell ref="BG2:BI2"/>
+    <mergeCell ref="BJ2:BL2"/>
+    <mergeCell ref="BM2:BO2"/>
+    <mergeCell ref="BP2:BR2"/>
+    <mergeCell ref="BS2:BU2"/>
+    <mergeCell ref="AL1:BC1"/>
+    <mergeCell ref="AL2:AN2"/>
+    <mergeCell ref="AO2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="AX2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="B1:S1"/>
     <mergeCell ref="T1:AK1"/>
@@ -53214,34 +53242,6 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="AL1:BC1"/>
-    <mergeCell ref="AL2:AN2"/>
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="AX2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="BD1:BU1"/>
-    <mergeCell ref="BD2:BF2"/>
-    <mergeCell ref="BG2:BI2"/>
-    <mergeCell ref="BJ2:BL2"/>
-    <mergeCell ref="BM2:BO2"/>
-    <mergeCell ref="BP2:BR2"/>
-    <mergeCell ref="BS2:BU2"/>
-    <mergeCell ref="BV1:CM1"/>
-    <mergeCell ref="BV2:BX2"/>
-    <mergeCell ref="BY2:CA2"/>
-    <mergeCell ref="CB2:CD2"/>
-    <mergeCell ref="CE2:CG2"/>
-    <mergeCell ref="CH2:CJ2"/>
-    <mergeCell ref="CK2:CM2"/>
-    <mergeCell ref="CN1:DE1"/>
-    <mergeCell ref="CN2:CP2"/>
-    <mergeCell ref="CQ2:CS2"/>
-    <mergeCell ref="CT2:CV2"/>
-    <mergeCell ref="CW2:CY2"/>
-    <mergeCell ref="CZ2:DB2"/>
-    <mergeCell ref="DC2:DE2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -53264,7 +53264,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="150" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C1" s="150"/>
       <c r="D1" s="150"/>
@@ -53292,7 +53292,7 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="149" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C2" s="149"/>
       <c r="D2" s="149"/>
@@ -53300,7 +53300,7 @@
       <c r="F2" s="149"/>
       <c r="G2" s="149"/>
       <c r="H2" s="149" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I2" s="149"/>
       <c r="J2" s="149"/>
@@ -53308,7 +53308,7 @@
       <c r="L2" s="149"/>
       <c r="M2" s="149"/>
       <c r="N2" s="149" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="O2" s="149"/>
       <c r="P2" s="149"/>
@@ -53316,7 +53316,7 @@
       <c r="R2" s="149"/>
       <c r="S2" s="149"/>
       <c r="T2" s="149" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="U2" s="149"/>
       <c r="V2" s="149"/>
@@ -53326,7 +53326,7 @@
     </row>
     <row r="3" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="123" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B3" s="130">
         <v>170000</v>
@@ -53362,7 +53362,7 @@
         <v>5600000</v>
       </c>
       <c r="M3" s="130" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N3" s="130">
         <v>5000000</v>
@@ -53403,7 +53403,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="124" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B4" s="128">
         <v>260000</v>
@@ -53480,7 +53480,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="124" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B5" s="128">
         <v>70000</v>
@@ -53513,10 +53513,10 @@
         <v>13000000</v>
       </c>
       <c r="L5" s="128" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M5" s="128" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N5" s="128">
         <v>90000000</v>
@@ -53557,7 +53557,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="124" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B6" s="128">
         <v>140000</v>
@@ -53634,7 +53634,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="124" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B7" s="128">
         <v>170000</v>
@@ -53670,7 +53670,7 @@
         <v>5600000</v>
       </c>
       <c r="M7" s="128" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N7" s="128">
         <v>5000000</v>
@@ -53711,7 +53711,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="124" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B8" s="128">
         <v>320000</v>
@@ -53788,7 +53788,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="124" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B9" s="128">
         <v>70000</v>
@@ -53821,10 +53821,10 @@
         <v>13000000</v>
       </c>
       <c r="L9" s="128" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M9" s="128" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N9" s="128">
         <v>90000000</v>
@@ -53865,7 +53865,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="124" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B10" s="128">
         <v>100000</v>
@@ -53942,7 +53942,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="124" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B11" s="128">
         <v>170000</v>
@@ -53978,7 +53978,7 @@
         <v>5600000</v>
       </c>
       <c r="M11" s="128" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N11" s="128">
         <v>5000000</v>
@@ -54019,7 +54019,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="124" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B12" s="128">
         <v>140000</v>
@@ -54096,7 +54096,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="124" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B13" s="128">
         <v>170000</v>
@@ -54132,7 +54132,7 @@
         <v>5600000</v>
       </c>
       <c r="M13" s="128" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N13" s="128">
         <v>5000000</v>
@@ -54173,7 +54173,7 @@
     </row>
     <row r="14" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="125" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B14" s="129">
         <v>190000</v>
@@ -54242,16 +54242,16 @@
         <v>230000</v>
       </c>
       <c r="X14" s="129" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y14" s="129" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="150" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C17" s="150"/>
       <c r="D17" s="150"/>
@@ -54279,7 +54279,7 @@
     </row>
     <row r="18" spans="1:25" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="149" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C18" s="149"/>
       <c r="D18" s="149"/>
@@ -54287,7 +54287,7 @@
       <c r="F18" s="149"/>
       <c r="G18" s="149"/>
       <c r="H18" s="149" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I18" s="149"/>
       <c r="J18" s="149"/>
@@ -54295,7 +54295,7 @@
       <c r="L18" s="149"/>
       <c r="M18" s="149"/>
       <c r="N18" s="149" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="O18" s="149"/>
       <c r="P18" s="149"/>
@@ -54303,7 +54303,7 @@
       <c r="R18" s="149"/>
       <c r="S18" s="149"/>
       <c r="T18" s="149" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="U18" s="149"/>
       <c r="V18" s="149"/>
@@ -54313,7 +54313,7 @@
     </row>
     <row r="19" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A19" s="123" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B19" s="126">
         <v>5.23</v>
@@ -54388,7 +54388,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="124" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B20" s="109">
         <v>5.41</v>
@@ -54465,7 +54465,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="124" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B21" s="109">
         <v>4.8499999999999996</v>
@@ -54538,7 +54538,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="124" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B22" s="109">
         <v>5.15</v>
@@ -54615,7 +54615,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="124" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B23" s="109">
         <v>5.23</v>
@@ -54690,7 +54690,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="124" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B24" s="109">
         <v>5.51</v>
@@ -54767,7 +54767,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="124" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B25" s="109">
         <v>4.8499999999999996</v>
@@ -54840,7 +54840,7 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="124" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B26" s="109">
         <v>5</v>
@@ -54917,7 +54917,7 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="124" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B27" s="109">
         <v>5.23</v>
@@ -54992,7 +54992,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="124" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B28" s="109">
         <v>5.15</v>
@@ -55069,7 +55069,7 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="124" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B29" s="109">
         <v>5.23</v>
@@ -55144,7 +55144,7 @@
     </row>
     <row r="30" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="125" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B30" s="127">
         <v>5.28</v>
@@ -55213,10 +55213,10 @@
         <v>5.36</v>
       </c>
       <c r="X30" s="127" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y30" s="127" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
@@ -55533,16 +55533,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="B1:Y1"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="H18:M18"/>
     <mergeCell ref="N18:S18"/>
     <mergeCell ref="T18:Y18"/>
     <mergeCell ref="B17:Y17"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="B1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
